--- a/sbgl/bfa/租赁单.xlsx
+++ b/sbgl/bfa/租赁单.xlsx
@@ -89,11 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>器材名称
-Equipment Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量
 QTY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,6 +196,11 @@
   <si>
     <t>单价/小计（元）Price
 Unit/Subtotal（¥）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>器材名称
+Equipment Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,41 +469,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,32 +524,50 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,7 +901,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,8 +916,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
-        <v>22</v>
+      <c r="A1" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -956,14 +956,14 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="57"/>
       <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="54">
         <v>41919</v>
       </c>
     </row>
@@ -971,12 +971,12 @@
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
@@ -986,14 +986,14 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="58"/>
       <c r="F8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="54">
         <v>41922</v>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
       <c r="F9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -1016,14 +1016,14 @@
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="58">
         <v>18800000000</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="58"/>
       <c r="F11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="33">
+        <v>25</v>
+      </c>
+      <c r="H11" s="56">
         <v>8760</v>
       </c>
     </row>
@@ -1031,195 +1031,195 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="F12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="s">
+      <c r="H14" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38">
+      <c r="F15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="34">
         <v>1</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="40">
-        <v>1</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>34</v>
+      <c r="H15" s="45" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41">
+      <c r="A16" s="35">
         <v>2</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43">
+      <c r="E16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37">
         <v>2</v>
       </c>
-      <c r="H16" s="55" t="s">
-        <v>35</v>
+      <c r="H16" s="46" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41">
+      <c r="A17" s="35">
         <v>3</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37">
         <v>3</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>36</v>
+      <c r="H17" s="46" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41">
+      <c r="A18" s="35">
         <v>4</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="55"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41">
+      <c r="A19" s="35">
         <v>5</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="55"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41">
+      <c r="A20" s="35">
         <v>6</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="55"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41">
+      <c r="A21" s="35">
         <v>7</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="55"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
+      <c r="A22" s="35">
         <v>8</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="55"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44">
+      <c r="A23" s="38">
         <v>9</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="56"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
+      <c r="A24" s="41">
         <v>10</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="57"/>
+      <c r="B24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23"/>
@@ -1230,68 +1230,57 @@
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" s="17" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
+      <c r="A26" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F30" s="29"/>
+      <c r="G30" s="29" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="F30" s="34"/>
-      <c r="G30" s="34" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A26:E29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="H11:H12"/>
@@ -1299,6 +1288,17 @@
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A26:E29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/sbgl/bfa/租赁单.xlsx
+++ b/sbgl/bfa/租赁单.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sbgl\sbgl\bfa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8190"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,15 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t>中国北京市海淀区西土城路4号XXXXXX？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话：XXXXXXXXXXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>B/10307-0030</t>
   </si>
@@ -120,18 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ARRI Alexa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRI Alexa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRI Alexa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,6 +127,36 @@
   </si>
   <si>
     <t>？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500/7500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价/小计（元）Price
+Unit/Subtotal（¥）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>器材名称
+Equipment Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国北京市海淀区西土城路4号XXXXXX？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-02-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话：13000000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -170,47 +175,11 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>DC-0004</t>
-  </si>
-  <si>
-    <t>2500/7500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200/1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20/60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔光纸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canon 5D Mark II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价/小计（元）Price
-Unit/Subtotal（¥）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>器材名称
-Equipment Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,21 +297,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -365,69 +325,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -454,120 +359,84 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,389 +767,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="6" width="14.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6" style="14" customWidth="1"/>
     <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="31" t="s">
-        <v>21</v>
+      <c r="A1" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="54">
-        <v>41919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>18800000000</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="21">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="F6" s="15" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="F8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="54">
-        <v>41922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="58">
-        <v>18800000000</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="F11" s="16" t="s">
+      <c r="H14" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="56">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="F12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
-        <v>1</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="34">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
-        <v>2</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37">
-        <v>2</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35">
-        <v>3</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37">
-        <v>3</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35">
-        <v>4</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35">
-        <v>5</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="46"/>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35">
-        <v>6</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35">
-        <v>7</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35">
-        <v>8</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38">
-        <v>9</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41">
-        <v>10</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" s="17" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="9">
+    <mergeCell ref="A17:E20"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="H11:H12"/>
@@ -1288,17 +1024,6 @@
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A26:E29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/sbgl/bfa/租赁单.xlsx
+++ b/sbgl/bfa/租赁单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>中国北京市海淀区西土城路4号XXXXXX？</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Canon 5D Mark II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单价/小计（元）Price
 Unit/Subtotal（¥）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,6 +197,16 @@
   <si>
     <t>器材名称
 Equipment Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳能5D Mark II
+Canon 5D Mark II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿莱艾丽莎
+ARRI ALEXA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +907,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -1060,15 +1066,15 @@
         <v>15</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32">
         <v>1</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
@@ -1085,12 +1091,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
         <v>2</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
@@ -1105,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
         <v>3</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35">
         <v>4</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="46"/>
     </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35">
         <v>5</v>
       </c>
@@ -1151,7 +1157,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="46"/>
     </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35">
         <v>6</v>
       </c>
@@ -1165,7 +1171,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35">
         <v>7</v>
       </c>
@@ -1179,7 +1185,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="46"/>
     </row>
-    <row r="22" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
         <v>8</v>
       </c>
@@ -1193,7 +1199,7 @@
       <c r="G22" s="37"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38">
         <v>9</v>
       </c>
@@ -1207,7 +1213,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="47"/>
     </row>
-    <row r="24" spans="1:8" s="17" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41">
         <v>10</v>
       </c>
